--- a/public/WindWings_Report.xlsx
+++ b/public/WindWings_Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>EntityId</t>
   </si>
@@ -49,13 +49,13 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>Fri, 10 Sep 2021 05:56:52 GMT</t>
-  </si>
-  <si>
-    <t>Fri, 10 Sep 2021 05:57:01 GMT</t>
-  </si>
-  <si>
-    <t>Fri, 10 Sep 2021 05:57:06 GMT</t>
+    <t>Mon, 13 Sep 2021 05:25:55 GMT</t>
+  </si>
+  <si>
+    <t>Mon, 13 Sep 2021 05:25:59 GMT</t>
+  </si>
+  <si>
+    <t>Mon, 13 Sep 2021 05:26:01 GMT</t>
   </si>
   <si>
     <t>{5105D1B0-28D7-4996-B981-5BB7DD303F46}</t>
@@ -70,16 +70,13 @@
     <t>Encoder_error: No Response from sensor</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Thu, 09 Sep 2021 11:16:22 GMT</t>
-  </si>
-  <si>
-    <t>Mon, 01 Jan 1601 00:00:00 GMT</t>
-  </si>
-  <si>
-    <t>Thu, 09 Sep 2021 13:21:19 GMT</t>
+    <t>Mon, 13 Sep 2021 05:15:38 GMT</t>
+  </si>
+  <si>
+    <t>Mon, 13 Sep 2021 05:15:52 GMT</t>
+  </si>
+  <si>
+    <t>Mon, 13 Sep 2021 05:15:59 GMT</t>
   </si>
 </sst>
 </file>
@@ -788,7 +785,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -885,7 +882,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3728</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -914,7 +911,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3727</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -943,7 +940,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3726</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -972,7 +969,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3725</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
@@ -984,16 +981,16 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3724</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -1013,16 +1010,16 @@
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1030,7 +1027,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3723</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1042,16 +1039,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
